--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -108,6 +102,18 @@
   </si>
   <si>
     <t>None needed.  See notes below.</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,77 +490,77 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +573,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,12 +585,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -592,7 +598,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -600,7 +606,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -608,7 +614,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -616,7 +622,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -624,7 +630,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -632,7 +638,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -640,7 +646,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -648,7 +654,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -656,7 +662,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -664,10 +670,28 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <f>B6</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2\InputData\elec\BDSBaPCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -119,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,6 +178,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -220,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,16 +474,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,82 +491,82 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -575,20 +583,22 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -596,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -604,15 +614,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -620,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -628,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -636,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -644,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -652,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -660,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -668,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -676,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -685,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>32</v>
       </c>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -58,9 +58,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors</t>
-  </si>
-  <si>
     <t>Certain plant types, such as coal and natural gas, are capable of running for most</t>
   </si>
   <si>
@@ -119,6 +116,18 @@
   </si>
   <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
   </si>
 </sst>
 </file>
@@ -165,8 +174,8 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,101 +483,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -581,32 +590,32 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -614,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -622,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -630,15 +639,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -646,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -654,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -662,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -670,38 +679,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1020E-B0C4-4F04-8009-3AA729898980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68FB66-2025-468B-9FEA-2D8625AB8A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="480" windowWidth="23445" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
-  </si>
-  <si>
     <t>For the United States, we have set coal to 0 as of version 3.4. This reflects</t>
   </si>
   <si>
@@ -150,13 +144,25 @@
   </si>
   <si>
     <t xml:space="preserve">supply chain logistics, limit the amount the coal dispatches annually. </t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Do Suppliers Bid at Peak Capacity Factors</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +172,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -193,12 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,118 +554,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -663,157 +676,167 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B15">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
-        <f>B6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B16">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B17">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <f>B9</f>
+      <c r="B18">
+        <f>B10</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68FB66-2025-468B-9FEA-2D8625AB8A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B523AF-5035-4A2C-95AC-56D980E2EA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="480" windowWidth="23445" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>Unit: dimensionless (Boolean)</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -187,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,13 +231,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,9 +298,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,26 +333,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,26 +368,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,9 +668,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -835,6 +829,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B523AF-5035-4A2C-95AC-56D980E2EA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F3D9BE-1C8B-413E-B84F-E4DB8AF6F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -173,14 +173,17 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -668,10 +680,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +842,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="4">
@@ -838,7 +850,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="4">
@@ -846,7 +858,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="4">
@@ -854,7 +866,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="4">
@@ -862,7 +874,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="4">
@@ -874,6 +886,14 @@
         <v>46</v>
       </c>
       <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4">
         <v>0</v>
       </c>
     </row>
